--- a/stock_historical_data/1wk/APARINDS.NS.xlsx
+++ b/stock_historical_data/1wk/APARINDS.NS.xlsx
@@ -55587,7 +55587,9 @@
       <c r="P1040" t="n">
         <v>0</v>
       </c>
-      <c r="Q1040" t="inlineStr"/>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/APARINDS.NS.xlsx
+++ b/stock_historical_data/1wk/APARINDS.NS.xlsx
@@ -58765,7 +58765,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/APARINDS.NS.xlsx
+++ b/stock_historical_data/1wk/APARINDS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1041"/>
+  <dimension ref="A1:R1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3494,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -4950,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -8254,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="R161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -9654,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -11054,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="R189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="R221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -14022,7 +14022,7 @@
         <v>2</v>
       </c>
       <c r="R242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -16150,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -16990,7 +16990,7 @@
         <v>2</v>
       </c>
       <c r="R295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -17662,7 +17662,7 @@
         <v>2</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -17998,7 +17998,7 @@
         <v>2</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -20126,7 +20126,7 @@
         <v>1</v>
       </c>
       <c r="R351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -21022,7 +21022,7 @@
         <v>1</v>
       </c>
       <c r="R367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -21358,7 +21358,7 @@
         <v>2</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -22646,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="R396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -23486,7 +23486,7 @@
         <v>2</v>
       </c>
       <c r="R411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="R421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -24326,7 +24326,7 @@
         <v>2</v>
       </c>
       <c r="R426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -25054,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="R439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
@@ -26342,7 +26342,7 @@
         <v>1</v>
       </c>
       <c r="R462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -26622,7 +26622,7 @@
         <v>2</v>
       </c>
       <c r="R467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -28694,7 +28694,7 @@
         <v>2</v>
       </c>
       <c r="R504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -28918,7 +28918,7 @@
         <v>1</v>
       </c>
       <c r="R508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -30206,7 +30206,7 @@
         <v>2</v>
       </c>
       <c r="R531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -30654,7 +30654,7 @@
         <v>2</v>
       </c>
       <c r="R539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -31774,7 +31774,7 @@
         <v>1</v>
       </c>
       <c r="R559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -32838,7 +32838,7 @@
         <v>1</v>
       </c>
       <c r="R578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -33342,7 +33342,7 @@
         <v>2</v>
       </c>
       <c r="R587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588">
@@ -33398,7 +33398,7 @@
         <v>1</v>
       </c>
       <c r="R588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -34350,7 +34350,7 @@
         <v>2</v>
       </c>
       <c r="R605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606">
@@ -34910,7 +34910,7 @@
         <v>1</v>
       </c>
       <c r="R615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -36142,7 +36142,7 @@
         <v>2</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -36534,7 +36534,7 @@
         <v>2</v>
       </c>
       <c r="R644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645">
@@ -36590,7 +36590,7 @@
         <v>1</v>
       </c>
       <c r="R645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
@@ -36870,7 +36870,7 @@
         <v>2</v>
       </c>
       <c r="R650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651">
@@ -37934,7 +37934,7 @@
         <v>2</v>
       </c>
       <c r="R669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670">
@@ -37990,7 +37990,7 @@
         <v>1</v>
       </c>
       <c r="R670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -38550,7 +38550,7 @@
         <v>2</v>
       </c>
       <c r="R680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681">
@@ -39110,7 +39110,7 @@
         <v>1</v>
       </c>
       <c r="R690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -39390,7 +39390,7 @@
         <v>2</v>
       </c>
       <c r="R695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696">
@@ -39782,7 +39782,7 @@
         <v>1</v>
       </c>
       <c r="R702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -40342,7 +40342,7 @@
         <v>2</v>
       </c>
       <c r="R712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713">
@@ -40566,7 +40566,7 @@
         <v>1</v>
       </c>
       <c r="R716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728">
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
       <c r="R743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -42694,7 +42694,7 @@
         <v>1</v>
       </c>
       <c r="R754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -43142,7 +43142,7 @@
         <v>2</v>
       </c>
       <c r="R762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763">
@@ -43478,7 +43478,7 @@
         <v>1</v>
       </c>
       <c r="R768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -44038,7 +44038,7 @@
         <v>2</v>
       </c>
       <c r="R778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779">
@@ -44934,7 +44934,7 @@
         <v>1</v>
       </c>
       <c r="R794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -45326,7 +45326,7 @@
         <v>2</v>
       </c>
       <c r="R801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802">
@@ -45662,7 +45662,7 @@
         <v>2</v>
       </c>
       <c r="R807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -46222,7 +46222,7 @@
         <v>2</v>
       </c>
       <c r="R817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -46670,7 +46670,7 @@
         <v>1</v>
       </c>
       <c r="R825" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826">
@@ -47118,7 +47118,7 @@
         <v>2</v>
       </c>
       <c r="R833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -47510,7 +47510,7 @@
         <v>2</v>
       </c>
       <c r="R840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841">
@@ -47846,7 +47846,7 @@
         <v>1</v>
       </c>
       <c r="R846" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847">
@@ -48014,7 +48014,7 @@
         <v>2</v>
       </c>
       <c r="R849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850">
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="R857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -49638,7 +49638,7 @@
         <v>2</v>
       </c>
       <c r="R878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879">
@@ -50254,7 +50254,7 @@
         <v>2</v>
       </c>
       <c r="R889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -51150,7 +51150,7 @@
         <v>1</v>
       </c>
       <c r="R905" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
@@ -51710,7 +51710,7 @@
         <v>1</v>
       </c>
       <c r="R915" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936">
@@ -52998,7 +52998,7 @@
         <v>1</v>
       </c>
       <c r="R938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -53838,7 +53838,7 @@
         <v>2</v>
       </c>
       <c r="R953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954">
@@ -55126,7 +55126,7 @@
         <v>1</v>
       </c>
       <c r="R976" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977">
@@ -55910,7 +55910,7 @@
         <v>2</v>
       </c>
       <c r="R990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -57030,7 +57030,7 @@
         <v>2</v>
       </c>
       <c r="R1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011">
@@ -57254,7 +57254,7 @@
         <v>1</v>
       </c>
       <c r="R1014" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015">
@@ -57982,7 +57982,7 @@
         <v>1</v>
       </c>
       <c r="R1027" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -58094,7 +58094,7 @@
         <v>2</v>
       </c>
       <c r="R1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -58374,7 +58374,7 @@
         <v>1</v>
       </c>
       <c r="R1034" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035">
@@ -58768,6 +58768,114 @@
       <c r="R1041" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>8376</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>8648</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>8251</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>8345.099609375</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>8345.099609375</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>252592</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>8340.0498046875</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>8849</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>8250</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>8473.4501953125</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>8473.4501953125</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>523985</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/APARINDS.NS.xlsx
+++ b/stock_historical_data/1wk/APARINDS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1043"/>
+  <dimension ref="A1:R1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4667,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4947,10 +4947,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="R107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="R114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -7470,7 +7470,7 @@
         <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -8254,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="R161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -9654,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="R164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="R170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -11054,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="R189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -12118,7 +12118,7 @@
         <v>2</v>
       </c>
       <c r="R208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="R221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="R232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -14022,7 +14022,7 @@
         <v>2</v>
       </c>
       <c r="R242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -15254,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="R264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -16150,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="R291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -16990,7 +16990,7 @@
         <v>2</v>
       </c>
       <c r="R295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="R301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -17662,7 +17662,7 @@
         <v>2</v>
       </c>
       <c r="R307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -17998,7 +17998,7 @@
         <v>2</v>
       </c>
       <c r="R313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="R332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="R342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -20126,7 +20126,7 @@
         <v>1</v>
       </c>
       <c r="R351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -21022,7 +21022,7 @@
         <v>1</v>
       </c>
       <c r="R367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -21358,7 +21358,7 @@
         <v>2</v>
       </c>
       <c r="R373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -22646,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="R396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -23486,7 +23486,7 @@
         <v>2</v>
       </c>
       <c r="R411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="R421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -24326,7 +24326,7 @@
         <v>2</v>
       </c>
       <c r="R426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -25054,7 +25054,7 @@
         <v>2</v>
       </c>
       <c r="R439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -26342,7 +26342,7 @@
         <v>1</v>
       </c>
       <c r="R462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -26622,7 +26622,7 @@
         <v>2</v>
       </c>
       <c r="R467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="R481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -28694,7 +28694,7 @@
         <v>2</v>
       </c>
       <c r="R504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -28918,7 +28918,7 @@
         <v>1</v>
       </c>
       <c r="R508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -30206,7 +30206,7 @@
         <v>2</v>
       </c>
       <c r="R531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -30654,7 +30654,7 @@
         <v>2</v>
       </c>
       <c r="R539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -31774,7 +31774,7 @@
         <v>1</v>
       </c>
       <c r="R559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -32278,7 +32278,7 @@
         <v>2</v>
       </c>
       <c r="R568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -32838,7 +32838,7 @@
         <v>1</v>
       </c>
       <c r="R578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -33342,7 +33342,7 @@
         <v>2</v>
       </c>
       <c r="R587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -33398,7 +33398,7 @@
         <v>1</v>
       </c>
       <c r="R588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -34350,7 +34350,7 @@
         <v>2</v>
       </c>
       <c r="R605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -34910,7 +34910,7 @@
         <v>1</v>
       </c>
       <c r="R615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -36142,7 +36142,7 @@
         <v>2</v>
       </c>
       <c r="R637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36534,7 +36534,7 @@
         <v>2</v>
       </c>
       <c r="R644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -36590,7 +36590,7 @@
         <v>1</v>
       </c>
       <c r="R645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -36870,7 +36870,7 @@
         <v>2</v>
       </c>
       <c r="R650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -37934,7 +37934,7 @@
         <v>2</v>
       </c>
       <c r="R669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -37990,7 +37990,7 @@
         <v>1</v>
       </c>
       <c r="R670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -38550,7 +38550,7 @@
         <v>2</v>
       </c>
       <c r="R680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -39110,7 +39110,7 @@
         <v>1</v>
       </c>
       <c r="R690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -39390,7 +39390,7 @@
         <v>2</v>
       </c>
       <c r="R695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -39782,7 +39782,7 @@
         <v>1</v>
       </c>
       <c r="R702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -40342,7 +40342,7 @@
         <v>2</v>
       </c>
       <c r="R712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -40566,7 +40566,7 @@
         <v>1</v>
       </c>
       <c r="R716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -41182,7 +41182,7 @@
         <v>2</v>
       </c>
       <c r="R727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -42078,7 +42078,7 @@
         <v>1</v>
       </c>
       <c r="R743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -42694,7 +42694,7 @@
         <v>1</v>
       </c>
       <c r="R754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -43142,7 +43142,7 @@
         <v>2</v>
       </c>
       <c r="R762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -43478,7 +43478,7 @@
         <v>1</v>
       </c>
       <c r="R768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -44038,7 +44038,7 @@
         <v>2</v>
       </c>
       <c r="R778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -44934,7 +44934,7 @@
         <v>1</v>
       </c>
       <c r="R794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -45326,7 +45326,7 @@
         <v>2</v>
       </c>
       <c r="R801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -45662,7 +45662,7 @@
         <v>2</v>
       </c>
       <c r="R807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -46222,7 +46222,7 @@
         <v>2</v>
       </c>
       <c r="R817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
@@ -46670,7 +46670,7 @@
         <v>1</v>
       </c>
       <c r="R825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -47118,7 +47118,7 @@
         <v>2</v>
       </c>
       <c r="R833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -47510,7 +47510,7 @@
         <v>2</v>
       </c>
       <c r="R840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -47846,7 +47846,7 @@
         <v>1</v>
       </c>
       <c r="R846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -48014,7 +48014,7 @@
         <v>2</v>
       </c>
       <c r="R849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="R857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -49638,7 +49638,7 @@
         <v>2</v>
       </c>
       <c r="R878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -50254,7 +50254,7 @@
         <v>2</v>
       </c>
       <c r="R889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -51150,7 +51150,7 @@
         <v>1</v>
       </c>
       <c r="R905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -51710,7 +51710,7 @@
         <v>1</v>
       </c>
       <c r="R915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -52830,7 +52830,7 @@
         <v>2</v>
       </c>
       <c r="R935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -52998,7 +52998,7 @@
         <v>1</v>
       </c>
       <c r="R938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -53838,7 +53838,7 @@
         <v>2</v>
       </c>
       <c r="R953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
@@ -55126,7 +55126,7 @@
         <v>1</v>
       </c>
       <c r="R976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -55910,7 +55910,7 @@
         <v>2</v>
       </c>
       <c r="R990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -57030,7 +57030,7 @@
         <v>2</v>
       </c>
       <c r="R1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011">
@@ -57254,7 +57254,7 @@
         <v>1</v>
       </c>
       <c r="R1014" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015">
@@ -57982,7 +57982,7 @@
         <v>1</v>
       </c>
       <c r="R1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -58094,7 +58094,7 @@
         <v>2</v>
       </c>
       <c r="R1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030">
@@ -58374,7 +58374,7 @@
         <v>1</v>
       </c>
       <c r="R1034" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035">
@@ -58701,7 +58701,7 @@
         <v>23</v>
       </c>
       <c r="O1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1040" t="n">
         <v>0</v>
@@ -58821,7 +58821,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58875,7 +58877,1829 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>8448.076734249651</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>8837.682155405633</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>8338.748682394655</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>8807.41796875</v>
+      </c>
+      <c r="F1044" t="inlineStr"/>
+      <c r="G1044" t="n">
+        <v>441226</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>8899.303543234708</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>8908.099093834126</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>8479.930875352968</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>8616.29296875</v>
+      </c>
+      <c r="F1045" t="inlineStr"/>
+      <c r="G1045" t="n">
+        <v>285410</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>8646.854653552151</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>9043.417298008164</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>7887.621156376395</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>7970.8095703125</v>
+      </c>
+      <c r="F1046" t="inlineStr"/>
+      <c r="G1046" t="n">
+        <v>634187</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>7712.249193468113</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>8346.699856546702</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>7548.60507388333</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>8150.2568359375</v>
+      </c>
+      <c r="F1047" t="inlineStr"/>
+      <c r="G1047" t="n">
+        <v>625624</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>8150.903273042668</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>9600.891807244416</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>8150.903273042668</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>8569.7294921875</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>1990324</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>8398.232457900571</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>8467.159405564651</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>8031.636020716621</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>8227.4326171875</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>713990</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>8160.842277980688</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>8564.511657962526</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>8120.043230167194</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>8374.6279296875</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>272735</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>8395.400343434891</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>8935.083353555068</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>8153.188824147366</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>8895.576171875</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>571330</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>8950.25</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>9495</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>8770</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>9163.5</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>772362</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>9170</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>9268.900390625</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>8716.400390625</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>8942.7001953125</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>681085</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>8936</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>10515</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>8888</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>10399.75</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>1316632</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>10624.7998046875</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>9379.650390625</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>9417.849609375</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>613571</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>9980</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>9330.25</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>9492.599609375</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>579386</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>9499.9501953125</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>9711</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>9335.650390625</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>9514.099609375</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>397434</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>9502</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>10720</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>9163.150390625</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>10428.400390625</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>639432</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>10440</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>10061.650390625</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>10138.4501953125</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>479192</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>10338.4501953125</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>10338.4501953125</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>9405.7001953125</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>9449.75</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>522600</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>9449.75</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>10263.2001953125</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>9210.7998046875</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>10073.7998046875</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>440799</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>10000.0498046875</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>9025</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>9051.25</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>397218</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>9051.25</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>9074.4501953125</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>8574.349609375</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>8959.349609375</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>542028</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>8900</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>9689</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>8692.5</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>9305.400390625</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>859306</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>9411.0498046875</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>10176.5</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>9411</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>10101.349609375</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>378072</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>10029</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>9850</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>10004.7998046875</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>364579</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>10368.5498046875</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>9768</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>9953</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>418630</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>9963</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>10127.4501953125</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>9785</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>9926.900390625</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>267186</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>10330</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>9791</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>10047.9501953125</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>207461</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>11160</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>9875.900390625</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>10950.7001953125</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>529718</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>10961.5</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>11779.900390625</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>10301.099609375</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>10596.099609375</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>644817</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>10500.0498046875</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>10673</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>9861</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>10078.849609375</v>
+      </c>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="n">
+        <v>444852</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>10178</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>10225.400390625</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>9270</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>9311.7001953125</v>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="n">
+        <v>590275</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>9300</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>9300</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>6690</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>7491.9501953125</v>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="n">
+        <v>2330594</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>7370.0498046875</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>7629.7001953125</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>6940</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>7103.0498046875</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>651697</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>7121.5498046875</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>7125.5</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>6242.60009765625</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>6367.35009765625</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>1034781</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>6624.35009765625</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>5962.7998046875</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>6433.4501953125</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>890127</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>6413.4501953125</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>6555.9501953125</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>5595.64990234375</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>5797.39990234375</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>746481</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/APARINDS.NS.xlsx
+++ b/stock_historical_data/1wk/APARINDS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1078"/>
+  <dimension ref="A1:R1082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -58931,7 +58931,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58983,7 +58985,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -59035,7 +59039,9 @@
       <c r="Q1046" t="n">
         <v>1</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59087,7 +59093,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59139,7 +59147,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59191,7 +59201,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59243,7 +59255,9 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59295,7 +59309,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59347,7 +59363,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59399,7 +59417,9 @@
       <c r="Q1053" t="n">
         <v>1</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59451,7 +59471,9 @@
       <c r="Q1054" t="n">
         <v>2</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59503,7 +59525,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59555,7 +59579,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59607,7 +59633,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59659,7 +59687,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59711,7 +59741,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59763,7 +59795,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59815,7 +59849,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59867,7 +59903,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59919,7 +59957,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -59971,7 +60011,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60023,7 +60065,9 @@
       <c r="Q1065" t="n">
         <v>2</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60075,7 +60119,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60127,7 +60173,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60179,7 +60227,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60231,7 +60281,9 @@
       <c r="Q1069" t="n">
         <v>1</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60283,7 +60335,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60335,7 +60389,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60387,7 +60443,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60439,7 +60497,9 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60491,7 +60551,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60543,7 +60605,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60595,7 +60659,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60647,7 +60713,9 @@
       <c r="Q1077" t="n">
         <v>2</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60699,7 +60767,217 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>5849</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>6217.35009765625</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>5476.39990234375</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>6106.60009765625</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>1117815</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>6250</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>6382.5498046875</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>5362.60009765625</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>5481.5498046875</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>819391</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>5480</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>6028.4501953125</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>5928.2001953125</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>1198623</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>5975.0498046875</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>6241.9501953125</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>5465.14990234375</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>5539.9501953125</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>1084044</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
